--- a/lab_log/Report-Age.xlsx
+++ b/lab_log/Report-Age.xlsx
@@ -9,26 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="10200" windowWidth="20490" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report-Age" sheetId="1" r:id="rId1"/>
     <sheet name="Report-Age-True-Category" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="86">
   <si>
     <t>dataset</t>
   </si>
   <si>
     <t>user_id_num</t>
-  </si>
-  <si>
-    <t>creative_id_num</t>
   </si>
   <si>
     <t>max_len</t>
@@ -197,7 +194,121 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>128k</t>
+    <t>0.5,32</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.28m</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分训练集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整训练集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalMaxPooling1D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>creative_id_end</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>creative_id_end</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalMaxPooling1D+MLP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,64,0.5,32</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,64,BN,0.5,32,BN,05.10,BN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,128,BN,0.5,128,BN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,128,BN,05,128,BN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,128,BN,0.5,128,BN,0.5,10,BN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,64,BN,0.5,32,BN,0.5,10,BN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,128,BN,0.5,128,BN,0.5,128,BN,0.5,128,BN,0.5,10,BN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,64,BN,0.5,64,BN,0.5,10,BN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,192,BN,0.5,192,BN,0.5,10,BN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,192,BN,0.5,192,BN,0.5,10,BN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,32,BN,0.5,32,BN,0.5,10,BN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,32,BN,0.5,32,BN,0.5,10,BN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[creative_id,click_times]
+GlobalMaxPooling1D+MLP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码有错</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.5,128,BN,0.5,10,BN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[creative_id,product_id,product_category,advertiser_id,industry,click_times]
+GlobalMaxPooling1D+MLP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,0.5,128,BN,0.5,128,BN,0.5,128,BN,0.5,64,BN,0.5,64,BN,0.5,64,BN,0.5,10,BN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[creative_id,product_id,product_category,advertiser_id,industry,click_times]GlobalMaxPooling1D+MLP</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +477,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +655,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -791,9 +914,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1116,18 +1251,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS48"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AE1048576"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L46" sqref="A46:L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="1" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.875" customWidth="1"/>
+    <col min="12" max="12" width="34.125" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,150 +1294,90 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
-        <v>24</v>
-      </c>
       <c r="W1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>781240</v>
+      </c>
+      <c r="E2">
         <v>32</v>
       </c>
-      <c r="AE1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="F2">
         <v>32</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2">
-        <v>48</v>
-      </c>
-      <c r="F2">
-        <v>256</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -1287,48 +1386,63 @@
         <v>256</v>
       </c>
       <c r="I2">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
-        <v>38</v>
+      <c r="M2">
+        <v>1.7547999999999999</v>
       </c>
       <c r="N2">
-        <v>0.2303</v>
+        <v>0.30940000000000001</v>
+      </c>
+      <c r="O2">
+        <v>1.5333000000000001</v>
       </c>
       <c r="P2">
-        <v>0.32400000000000001</v>
+        <v>0.38640000000000002</v>
       </c>
       <c r="Q2">
+        <v>9</v>
+      </c>
+      <c r="R2">
+        <v>1.9014</v>
+      </c>
+      <c r="S2">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="T2">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="U2">
+        <v>0.37030000000000002</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2">
         <v>10</v>
       </c>
-      <c r="S2">
-        <v>0.31440000000000001</v>
-      </c>
-      <c r="U2">
-        <v>0.31380000000000002</v>
-      </c>
-      <c r="AF2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>11</v>
-      </c>
-      <c r="AI2">
-        <v>0.31380000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="X2">
+        <v>2.0451000000000001</v>
+      </c>
+      <c r="Y2">
+        <v>0.36670000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>781240</v>
       </c>
       <c r="E3">
         <v>128</v>
@@ -1346,45 +1460,63 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3">
+        <v>1.7804</v>
       </c>
       <c r="N3">
-        <v>0.30559999999999998</v>
+        <v>0.2994</v>
+      </c>
+      <c r="O3">
+        <v>1.536</v>
       </c>
       <c r="P3">
-        <v>0.38750000000000001</v>
+        <v>0.38369999999999999</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="R3">
+        <v>1.5578000000000001</v>
       </c>
       <c r="S3">
-        <v>0.37709999999999999</v>
+        <v>0.38240000000000002</v>
+      </c>
+      <c r="T3">
+        <v>1.5555000000000001</v>
       </c>
       <c r="U3">
-        <v>0.37730000000000002</v>
-      </c>
-      <c r="AF3" t="b">
+        <v>0.38219999999999998</v>
+      </c>
+      <c r="V3" t="b">
         <v>1</v>
       </c>
-      <c r="AG3">
-        <v>11</v>
-      </c>
-      <c r="AI3">
-        <v>0.37730000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="W3">
+        <v>15</v>
+      </c>
+      <c r="X3">
+        <v>1.5567</v>
+      </c>
+      <c r="Y3">
+        <v>0.39410000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <v>128</v>
@@ -1402,163 +1534,217 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4">
+        <v>1.8889</v>
+      </c>
+      <c r="N4">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="O4">
+        <v>1.6321000000000001</v>
+      </c>
+      <c r="P4">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>14</v>
+      </c>
+      <c r="R4">
+        <v>1.6967000000000001</v>
+      </c>
+      <c r="S4">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="T4">
+        <v>1.6914</v>
+      </c>
+      <c r="U4">
+        <v>0.3518</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4">
+        <v>1.7713000000000001</v>
+      </c>
+      <c r="Y4">
+        <v>0.35070000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>1024</v>
+      </c>
+      <c r="I5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5">
+        <v>1.9854000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="O5">
+        <v>1.5857000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.36470000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5">
+        <v>1.6632</v>
+      </c>
+      <c r="S5">
+        <v>0.36009999999999998</v>
+      </c>
+      <c r="T5">
+        <v>1.6642999999999999</v>
+      </c>
+      <c r="U5">
+        <v>0.35749999999999998</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>17</v>
+      </c>
+      <c r="X5">
+        <v>1.7959000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>0.35360000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>512</v>
+      </c>
+      <c r="I6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6">
+        <v>1.8867</v>
+      </c>
+      <c r="N6">
+        <v>0.27529999999999999</v>
+      </c>
+      <c r="O6">
+        <v>1.5716000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.37919999999999998</v>
+      </c>
+      <c r="Q6">
         <v>38</v>
       </c>
-      <c r="N4">
-        <v>0.30509999999999998</v>
-      </c>
-      <c r="P4">
-        <v>0.38590000000000002</v>
-      </c>
-      <c r="Q4">
-        <v>9</v>
-      </c>
-      <c r="S4">
-        <v>0.3735</v>
-      </c>
-      <c r="U4">
-        <v>0.37319999999999998</v>
-      </c>
-      <c r="AF4" t="b">
+      <c r="R6">
+        <v>1.5827</v>
+      </c>
+      <c r="S6">
+        <v>0.37569999999999998</v>
+      </c>
+      <c r="T6">
+        <v>1.5786</v>
+      </c>
+      <c r="U6">
+        <v>0.37659999999999999</v>
+      </c>
+      <c r="V6" t="b">
         <v>1</v>
       </c>
-      <c r="AG4">
-        <v>9</v>
-      </c>
-      <c r="AI4">
-        <v>0.37319999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5">
-        <v>128</v>
-      </c>
-      <c r="F5">
-        <v>128</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>256</v>
-      </c>
-      <c r="I5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5">
-        <v>0.30630000000000002</v>
-      </c>
-      <c r="P5">
-        <v>0.3836</v>
-      </c>
-      <c r="Q5">
-        <v>9</v>
-      </c>
-      <c r="S5">
-        <v>0.36909999999999998</v>
-      </c>
-      <c r="U5">
-        <v>0.36980000000000002</v>
-      </c>
-      <c r="AF5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>9</v>
-      </c>
-      <c r="AI5">
-        <v>0.36980000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6">
-        <v>128</v>
-      </c>
-      <c r="F6">
-        <v>256</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>256</v>
-      </c>
-      <c r="I6">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6">
-        <v>0.32950000000000002</v>
-      </c>
-      <c r="P6">
-        <v>0.39419999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>6</v>
-      </c>
-      <c r="S6">
-        <v>0.37230000000000002</v>
-      </c>
-      <c r="U6">
-        <v>0.371</v>
-      </c>
-      <c r="AF6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>6</v>
-      </c>
-      <c r="AI6">
-        <v>0.371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="W6">
+        <v>27</v>
+      </c>
+      <c r="X6">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="Y6">
+        <v>0.38019999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E7">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F7">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -1570,51 +1756,66 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7">
+        <v>1.8889</v>
+      </c>
+      <c r="N7">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="O7">
+        <v>1.6321000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="Q7">
+        <v>14</v>
+      </c>
+      <c r="R7">
+        <v>1.6967000000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="T7">
+        <v>1.6914</v>
+      </c>
+      <c r="U7">
+        <v>0.3518</v>
+      </c>
+      <c r="V7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>1.7713000000000001</v>
+      </c>
+      <c r="Y7">
+        <v>0.35070000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="N7">
-        <v>0.32769999999999999</v>
-      </c>
-      <c r="P7">
-        <v>0.3947</v>
-      </c>
-      <c r="Q7">
-        <v>7</v>
-      </c>
-      <c r="S7">
-        <v>0.37280000000000002</v>
-      </c>
-      <c r="U7">
-        <v>0.37159999999999999</v>
-      </c>
-      <c r="AF7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>7</v>
-      </c>
-      <c r="AI7">
-        <v>0.37159999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>128</v>
       </c>
       <c r="F8">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -1626,42 +1827,42 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8">
-        <v>0.32729999999999998</v>
+        <v>0.30559999999999998</v>
       </c>
       <c r="P8">
-        <v>0.39639999999999997</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S8">
-        <v>0.37319999999999998</v>
+        <v>0.37709999999999999</v>
       </c>
       <c r="U8">
-        <v>0.37180000000000002</v>
-      </c>
-      <c r="AF8" t="b">
+        <v>0.37730000000000002</v>
+      </c>
+      <c r="V8" t="b">
         <v>1</v>
       </c>
-      <c r="AG8">
-        <v>6</v>
-      </c>
-      <c r="AI8">
-        <v>0.37180000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="W8">
+        <v>11</v>
+      </c>
+      <c r="Y8">
+        <v>0.37730000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -1670,7 +1871,7 @@
         <v>128</v>
       </c>
       <c r="F9">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="G9">
         <v>20</v>
@@ -1682,57 +1883,63 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>1.6969000000000001</v>
+        <v>1.7410000000000001</v>
       </c>
       <c r="N9">
-        <v>0.32690000000000002</v>
+        <v>0.31040000000000001</v>
       </c>
       <c r="O9">
-        <v>1.5031000000000001</v>
+        <v>1.5404</v>
       </c>
       <c r="P9">
-        <v>0.39629999999999999</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R9">
-        <v>1.9955000000000001</v>
+        <v>1.7081</v>
       </c>
       <c r="S9">
-        <v>0.37430000000000002</v>
+        <v>0.36880000000000002</v>
+      </c>
+      <c r="T9">
+        <v>1.7037</v>
       </c>
       <c r="U9">
-        <v>0.37359999999999999</v>
-      </c>
-      <c r="AF9" t="b">
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="V9" t="b">
         <v>1</v>
       </c>
-      <c r="AG9">
-        <v>6</v>
-      </c>
-      <c r="AI9">
-        <v>0.37359999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>1.8308</v>
+      </c>
+      <c r="Y9">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
       </c>
       <c r="E10">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <v>256</v>
@@ -1744,66 +1951,51 @@
         <v>256</v>
       </c>
       <c r="I10">
-        <v>5.0000000000000001E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10">
+        <v>0.2303</v>
+      </c>
+      <c r="P10">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>0.31440000000000001</v>
+      </c>
+      <c r="U10">
+        <v>0.31380000000000002</v>
+      </c>
+      <c r="V10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>11</v>
+      </c>
+      <c r="Y10">
+        <v>0.31380000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="M10">
-        <v>1.6931</v>
-      </c>
-      <c r="N10">
-        <v>0.32690000000000002</v>
-      </c>
-      <c r="O10">
-        <v>1.5049999999999999</v>
-      </c>
-      <c r="P10">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="Q10">
-        <v>6</v>
-      </c>
-      <c r="R10">
-        <v>2.0045000000000002</v>
-      </c>
-      <c r="S10">
-        <v>0.37319999999999998</v>
-      </c>
-      <c r="T10">
-        <v>2.0116000000000001</v>
-      </c>
-      <c r="U10">
-        <v>0.37240000000000001</v>
-      </c>
-      <c r="AF10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG10">
-        <v>6</v>
-      </c>
-      <c r="AH10">
-        <v>2.0116000000000001</v>
-      </c>
-      <c r="AI10">
-        <v>0.37240000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
       <c r="E11">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F11">
         <v>256</v>
@@ -1818,60 +2010,45 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11">
-        <v>1.6866000000000001</v>
+        <v>37</v>
       </c>
       <c r="N11">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="O11">
-        <v>1.5065999999999999</v>
+        <v>0.32769999999999999</v>
       </c>
       <c r="P11">
-        <v>0.3962</v>
+        <v>0.3947</v>
       </c>
       <c r="Q11">
-        <v>6</v>
-      </c>
-      <c r="R11">
-        <v>1.9735</v>
+        <v>7</v>
       </c>
       <c r="S11">
-        <v>0.36959999999999998</v>
-      </c>
-      <c r="T11">
-        <v>1.974</v>
+        <v>0.37280000000000002</v>
       </c>
       <c r="U11">
-        <v>0.37069999999999997</v>
-      </c>
-      <c r="AF11" t="b">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="V11" t="b">
         <v>1</v>
       </c>
-      <c r="AG11">
-        <v>6</v>
-      </c>
-      <c r="AH11">
-        <v>1.974</v>
-      </c>
-      <c r="AI11">
-        <v>0.37069999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>0.37159999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>128</v>
@@ -1889,60 +2066,131 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>1.6915</v>
+        <v>1.6798999999999999</v>
       </c>
       <c r="N12">
-        <v>0.32890000000000003</v>
+        <v>0.3301</v>
       </c>
       <c r="O12">
-        <v>1.5115000000000001</v>
+        <v>1.5244</v>
       </c>
       <c r="P12">
-        <v>0.39450000000000002</v>
+        <v>0.38619999999999999</v>
       </c>
       <c r="Q12">
         <v>6</v>
       </c>
       <c r="R12">
-        <v>2.0276999999999998</v>
+        <v>1.8785000000000001</v>
       </c>
       <c r="S12">
-        <v>0.36770000000000003</v>
+        <v>0.36320000000000002</v>
       </c>
       <c r="T12">
-        <v>2.0327999999999999</v>
+        <v>1.8784000000000001</v>
       </c>
       <c r="U12">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="AF12" t="b">
+        <v>0.3619</v>
+      </c>
+      <c r="V12" t="b">
         <v>1</v>
       </c>
-      <c r="AG12">
+      <c r="W12">
         <v>6</v>
       </c>
-      <c r="AH12">
-        <v>2.0327999999999999</v>
-      </c>
-      <c r="AI12">
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="X12">
+        <v>2.1743000000000001</v>
+      </c>
+      <c r="Y12">
+        <v>0.35149999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>128</v>
+      </c>
+      <c r="F13">
+        <v>384</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>256</v>
+      </c>
+      <c r="I13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13">
+        <v>1.6484000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.34110000000000001</v>
+      </c>
+      <c r="O13">
+        <v>1.5148999999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>2.0148999999999999</v>
+      </c>
+      <c r="S13">
+        <v>0.35930000000000001</v>
+      </c>
+      <c r="T13">
+        <v>2.0143</v>
+      </c>
+      <c r="U13">
+        <v>0.36</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <v>2.1132</v>
+      </c>
+      <c r="Y13">
+        <v>0.35320000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>128</v>
@@ -1960,57 +2208,57 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.31009999999999999</v>
+      </c>
+      <c r="O14">
+        <v>1.5301</v>
+      </c>
+      <c r="P14">
+        <v>0.3881</v>
+      </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+      <c r="R14">
+        <v>1.7259</v>
+      </c>
+      <c r="S14">
+        <v>0.37580000000000002</v>
+      </c>
+      <c r="T14">
+        <v>1.7224999999999999</v>
+      </c>
+      <c r="U14">
+        <v>0.37580000000000002</v>
+      </c>
+      <c r="V14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>7</v>
+      </c>
+      <c r="X14">
+        <v>1.8924000000000001</v>
+      </c>
+      <c r="Y14">
+        <v>0.36930000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="M14">
-        <v>1.7444999999999999</v>
-      </c>
-      <c r="N14">
-        <v>0.30840000000000001</v>
-      </c>
-      <c r="O14">
-        <v>1.5422</v>
-      </c>
-      <c r="P14">
-        <v>0.37840000000000001</v>
-      </c>
-      <c r="Q14">
-        <v>8</v>
-      </c>
-      <c r="R14">
-        <v>1.6518999999999999</v>
-      </c>
-      <c r="S14">
-        <v>0.36849999999999999</v>
-      </c>
-      <c r="T14">
-        <v>1.6491</v>
-      </c>
-      <c r="U14">
-        <v>0.36890000000000001</v>
-      </c>
-      <c r="AF14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG14">
-        <v>8</v>
-      </c>
-      <c r="AH14">
-        <v>1.7334000000000001</v>
-      </c>
-      <c r="AI14">
-        <v>0.3644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -2019,7 +2267,7 @@
         <v>128</v>
       </c>
       <c r="F15">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="G15">
         <v>20</v>
@@ -2031,66 +2279,51 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15">
-        <v>1.7407999999999999</v>
+        <v>37</v>
       </c>
       <c r="N15">
-        <v>0.30790000000000001</v>
-      </c>
-      <c r="O15">
-        <v>1.5374000000000001</v>
+        <v>0.32729999999999998</v>
       </c>
       <c r="P15">
-        <v>0.38290000000000002</v>
+        <v>0.39639999999999997</v>
       </c>
       <c r="Q15">
-        <v>8</v>
-      </c>
-      <c r="R15">
-        <v>1.6959</v>
+        <v>6</v>
       </c>
       <c r="S15">
+        <v>0.37319999999999998</v>
+      </c>
+      <c r="U15">
         <v>0.37180000000000002</v>
       </c>
-      <c r="T15">
-        <v>1.6967000000000001</v>
-      </c>
-      <c r="U15">
-        <v>0.36840000000000001</v>
-      </c>
-      <c r="AF15" t="b">
+      <c r="V15" t="b">
         <v>1</v>
       </c>
-      <c r="AG15">
-        <v>7</v>
-      </c>
-      <c r="AH15">
-        <v>1.8089999999999999</v>
-      </c>
-      <c r="AI15">
-        <v>0.36359999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="Y15">
+        <v>0.37180000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>128</v>
       </c>
       <c r="F16">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="G16">
         <v>20</v>
@@ -2102,66 +2335,66 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>1.7410000000000001</v>
+        <v>1.6856</v>
       </c>
       <c r="N16">
-        <v>0.31040000000000001</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="O16">
-        <v>1.5404</v>
+        <v>1.5088999999999999</v>
       </c>
       <c r="P16">
-        <v>0.38100000000000001</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R16">
-        <v>1.7081</v>
+        <v>1.9351</v>
       </c>
       <c r="S16">
-        <v>0.36880000000000002</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="T16">
-        <v>1.7037</v>
+        <v>1.9428000000000001</v>
       </c>
       <c r="U16">
-        <v>0.37009999999999998</v>
-      </c>
-      <c r="AF16" t="b">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="V16" t="b">
         <v>1</v>
       </c>
-      <c r="AG16">
-        <v>7</v>
-      </c>
-      <c r="AH16">
-        <v>1.8308</v>
-      </c>
-      <c r="AI16">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>2.2778999999999998</v>
+      </c>
+      <c r="Y16">
+        <v>0.35780000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>128</v>
       </c>
       <c r="F17">
-        <v>128</v>
+        <v>384</v>
       </c>
       <c r="G17">
         <v>20</v>
@@ -2173,60 +2406,60 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>1.7450000000000001</v>
+        <v>1.6577</v>
       </c>
       <c r="N17">
-        <v>0.31009999999999999</v>
+        <v>0.33739999999999998</v>
       </c>
       <c r="O17">
-        <v>1.5301</v>
+        <v>1.5025999999999999</v>
       </c>
       <c r="P17">
-        <v>0.3881</v>
+        <v>0.39579999999999999</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R17">
-        <v>1.7259</v>
+        <v>2.0838000000000001</v>
       </c>
       <c r="S17">
-        <v>0.37580000000000002</v>
+        <v>0.36720000000000003</v>
       </c>
       <c r="T17">
-        <v>1.7224999999999999</v>
+        <v>2.0920999999999998</v>
       </c>
       <c r="U17">
-        <v>0.37580000000000002</v>
-      </c>
-      <c r="AF17" t="b">
+        <v>0.36409999999999998</v>
+      </c>
+      <c r="V17" t="b">
         <v>1</v>
       </c>
-      <c r="AG17">
-        <v>7</v>
-      </c>
-      <c r="AH17">
-        <v>1.8924000000000001</v>
-      </c>
-      <c r="AI17">
-        <v>0.36930000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>2.1865000000000001</v>
+      </c>
+      <c r="Y17">
+        <v>0.3599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>128</v>
@@ -2244,10 +2477,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M18">
         <v>1.7487999999999999</v>
@@ -2276,34 +2509,34 @@
       <c r="U18">
         <v>0.37469999999999998</v>
       </c>
-      <c r="AF18" t="b">
+      <c r="V18" t="b">
         <v>1</v>
       </c>
-      <c r="AG18">
+      <c r="W18">
         <v>7</v>
       </c>
-      <c r="AH18">
+      <c r="X18">
         <v>1.8991</v>
       </c>
-      <c r="AI18">
+      <c r="Y18">
         <v>0.36940000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>128</v>
       </c>
       <c r="F19">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -2315,66 +2548,60 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19">
+        <v>1.6969000000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="O19">
+        <v>1.5031000000000001</v>
+      </c>
+      <c r="P19">
+        <v>0.39629999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>1.9955000000000001</v>
+      </c>
+      <c r="S19">
+        <v>0.37430000000000002</v>
+      </c>
+      <c r="U19">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="V19" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="Y19">
+        <v>0.37359999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="M19">
-        <v>1.7531000000000001</v>
-      </c>
-      <c r="N19">
-        <v>0.30890000000000001</v>
-      </c>
-      <c r="O19">
-        <v>1.5286</v>
-      </c>
-      <c r="P19">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-      <c r="R19">
-        <v>1.7742</v>
-      </c>
-      <c r="S19">
-        <v>0.37240000000000001</v>
-      </c>
-      <c r="T19">
-        <v>1.7763</v>
-      </c>
-      <c r="U19">
-        <v>0.37309999999999999</v>
-      </c>
-      <c r="AF19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG19">
-        <v>7</v>
-      </c>
-      <c r="AH19">
-        <v>2.0173999999999999</v>
-      </c>
-      <c r="AI19">
-        <v>0.36480000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E20">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F20">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="G20">
         <v>20</v>
@@ -2386,60 +2613,131 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>1.7604</v>
+        <v>1.6931</v>
       </c>
       <c r="N20">
-        <v>0.30620000000000003</v>
+        <v>0.32690000000000002</v>
       </c>
       <c r="O20">
-        <v>1.5446</v>
+        <v>1.5049999999999999</v>
       </c>
       <c r="P20">
-        <v>0.38550000000000001</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R20">
-        <v>1.7738</v>
+        <v>2.0045000000000002</v>
       </c>
       <c r="S20">
-        <v>0.37440000000000001</v>
+        <v>0.37319999999999998</v>
       </c>
       <c r="T20">
-        <v>1.7788999999999999</v>
+        <v>2.0116000000000001</v>
       </c>
       <c r="U20">
-        <v>0.37190000000000001</v>
-      </c>
-      <c r="AF20" t="b">
+        <v>0.37240000000000001</v>
+      </c>
+      <c r="V20" t="b">
         <v>1</v>
       </c>
-      <c r="AG20">
-        <v>7</v>
-      </c>
-      <c r="AH20">
-        <v>2.0194000000000001</v>
-      </c>
-      <c r="AI20">
-        <v>0.36349999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="W20">
+        <v>6</v>
+      </c>
+      <c r="X20">
+        <v>2.0116000000000001</v>
+      </c>
+      <c r="Y20">
+        <v>0.37240000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21">
+        <v>256</v>
+      </c>
+      <c r="F21">
+        <v>256</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>256</v>
+      </c>
+      <c r="I21">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21">
+        <v>1.6866000000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="O21">
+        <v>1.5065999999999999</v>
+      </c>
+      <c r="P21">
+        <v>0.3962</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>1.9735</v>
+      </c>
+      <c r="S21">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="T21">
+        <v>1.974</v>
+      </c>
+      <c r="U21">
+        <v>0.37069999999999997</v>
+      </c>
+      <c r="V21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="X21">
+        <v>1.974</v>
+      </c>
+      <c r="Y21">
+        <v>0.37069999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>128</v>
@@ -2457,66 +2755,66 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>1.6767000000000001</v>
+        <v>1.6915</v>
       </c>
       <c r="N22">
-        <v>0.33069999999999999</v>
+        <v>0.32879999999999998</v>
       </c>
       <c r="O22">
-        <v>1.5321</v>
+        <v>1.506</v>
       </c>
       <c r="P22">
-        <v>0.38329999999999997</v>
+        <v>0.3952</v>
       </c>
       <c r="Q22">
         <v>6</v>
       </c>
       <c r="R22">
-        <v>1.7765</v>
+        <v>1.964</v>
       </c>
       <c r="S22">
-        <v>0.36309999999999998</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="T22">
-        <v>1.7771999999999999</v>
+        <v>1.9636</v>
       </c>
       <c r="U22">
-        <v>0.3614</v>
-      </c>
-      <c r="AF22" t="b">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="V22" t="b">
         <v>1</v>
       </c>
-      <c r="AG22">
-        <v>5</v>
-      </c>
-      <c r="AH22">
-        <v>1.9783999999999999</v>
-      </c>
-      <c r="AI22">
-        <v>0.3528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="W22">
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <v>2.3395999999999999</v>
+      </c>
+      <c r="Y22">
+        <v>0.3574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>128</v>
       </c>
       <c r="F23">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -2528,66 +2826,66 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>1.6817</v>
+        <v>1.6560999999999999</v>
       </c>
       <c r="N23">
-        <v>0.33079999999999998</v>
+        <v>0.3377</v>
       </c>
       <c r="O23">
-        <v>1.5185</v>
+        <v>1.5039</v>
       </c>
       <c r="P23">
-        <v>0.38490000000000002</v>
+        <v>0.3962</v>
       </c>
       <c r="Q23">
         <v>5</v>
       </c>
       <c r="R23">
-        <v>1.8625</v>
+        <v>2.1444000000000001</v>
       </c>
       <c r="S23">
-        <v>0.36420000000000002</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="T23">
-        <v>1.8641000000000001</v>
+        <v>2.1480999999999999</v>
       </c>
       <c r="U23">
-        <v>0.36209999999999998</v>
-      </c>
-      <c r="AF23" t="b">
+        <v>0.36409999999999998</v>
+      </c>
+      <c r="V23" t="b">
         <v>1</v>
       </c>
-      <c r="AG23">
+      <c r="W23">
         <v>6</v>
       </c>
-      <c r="AH23">
-        <v>2.13</v>
-      </c>
-      <c r="AI23">
-        <v>0.35170000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="X23">
+        <v>2.2450999999999999</v>
+      </c>
+      <c r="Y23">
+        <v>0.36080000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>128</v>
       </c>
       <c r="F24">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="G24">
         <v>20</v>
@@ -2599,60 +2897,60 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>1.6798999999999999</v>
+        <v>1.7531000000000001</v>
       </c>
       <c r="N24">
-        <v>0.3301</v>
+        <v>0.30890000000000001</v>
       </c>
       <c r="O24">
-        <v>1.5244</v>
+        <v>1.5286</v>
       </c>
       <c r="P24">
-        <v>0.38619999999999999</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R24">
-        <v>1.8785000000000001</v>
+        <v>1.7742</v>
       </c>
       <c r="S24">
-        <v>0.36320000000000002</v>
+        <v>0.37240000000000001</v>
       </c>
       <c r="T24">
-        <v>1.8784000000000001</v>
+        <v>1.7763</v>
       </c>
       <c r="U24">
-        <v>0.3619</v>
-      </c>
-      <c r="AF24" t="b">
+        <v>0.37309999999999999</v>
+      </c>
+      <c r="V24" t="b">
         <v>1</v>
       </c>
-      <c r="AG24">
-        <v>6</v>
-      </c>
-      <c r="AH24">
-        <v>2.1743000000000001</v>
-      </c>
-      <c r="AI24">
-        <v>0.35149999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="W24">
+        <v>7</v>
+      </c>
+      <c r="X24">
+        <v>2.0173999999999999</v>
+      </c>
+      <c r="Y24">
+        <v>0.36480000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E25">
         <v>128</v>
@@ -2670,66 +2968,66 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>1.6856</v>
+        <v>1.6874</v>
       </c>
       <c r="N25">
-        <v>0.33069999999999999</v>
+        <v>0.32950000000000002</v>
       </c>
       <c r="O25">
-        <v>1.5088999999999999</v>
+        <v>1.5278</v>
       </c>
       <c r="P25">
-        <v>0.39400000000000002</v>
+        <v>0.39190000000000003</v>
       </c>
       <c r="Q25">
+        <v>7</v>
+      </c>
+      <c r="R25">
+        <v>1.9809000000000001</v>
+      </c>
+      <c r="S25">
+        <v>0.37130000000000002</v>
+      </c>
+      <c r="T25">
+        <v>1.9842</v>
+      </c>
+      <c r="U25">
+        <v>0.36880000000000002</v>
+      </c>
+      <c r="V25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25">
         <v>6</v>
       </c>
-      <c r="R25">
-        <v>1.9351</v>
-      </c>
-      <c r="S25">
-        <v>0.37159999999999999</v>
-      </c>
-      <c r="T25">
-        <v>1.9428000000000001</v>
-      </c>
-      <c r="U25">
-        <v>0.36670000000000003</v>
-      </c>
-      <c r="AF25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG25">
-        <v>6</v>
-      </c>
-      <c r="AH25">
-        <v>2.2778999999999998</v>
-      </c>
-      <c r="AI25">
-        <v>0.35780000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="X25">
+        <v>2.3816999999999999</v>
+      </c>
+      <c r="Y25">
+        <v>0.35610000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E26">
         <v>128</v>
       </c>
       <c r="F26">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="G26">
         <v>20</v>
@@ -2741,166 +3039,237 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>1.6915</v>
+        <v>1.659</v>
       </c>
       <c r="N26">
-        <v>0.32879999999999998</v>
+        <v>0.33979999999999999</v>
       </c>
       <c r="O26">
-        <v>1.506</v>
+        <v>1.5206999999999999</v>
       </c>
       <c r="P26">
-        <v>0.3952</v>
+        <v>0.39589999999999997</v>
       </c>
       <c r="Q26">
         <v>6</v>
       </c>
       <c r="R26">
-        <v>1.964</v>
+        <v>2.1787000000000001</v>
       </c>
       <c r="S26">
-        <v>0.37159999999999999</v>
+        <v>0.3644</v>
       </c>
       <c r="T26">
-        <v>1.9636</v>
+        <v>2.1857000000000002</v>
       </c>
       <c r="U26">
-        <v>0.37040000000000001</v>
-      </c>
-      <c r="AF26" t="b">
+        <v>0.3639</v>
+      </c>
+      <c r="V26" t="b">
         <v>1</v>
       </c>
-      <c r="AG26">
+      <c r="W26">
         <v>6</v>
       </c>
-      <c r="AH26">
-        <v>2.3395999999999999</v>
-      </c>
-      <c r="AI26">
-        <v>0.3574</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="X26">
+        <v>2.2812999999999999</v>
+      </c>
+      <c r="Y26">
+        <v>0.36049999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="1">
+        <v>128</v>
+      </c>
+      <c r="F27" s="1">
+        <v>128</v>
+      </c>
+      <c r="G27" s="1">
+        <v>20</v>
+      </c>
+      <c r="H27" s="1">
+        <v>256</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1.7604</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.30620000000000003</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.5446</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>9</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1.7738</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.37440000000000001</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1.7788999999999999</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.37190000000000001</v>
+      </c>
+      <c r="V27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1">
+        <v>7</v>
+      </c>
+      <c r="X27" s="1">
+        <v>2.0194000000000001</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0.36349999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="3">
+        <v>128</v>
+      </c>
+      <c r="F28" s="3">
+        <v>256</v>
+      </c>
+      <c r="G28" s="3">
+        <v>20</v>
+      </c>
+      <c r="H28" s="3">
+        <v>256</v>
+      </c>
+      <c r="I28" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1.6915</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1.5115000000000001</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.39450000000000002</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>6</v>
+      </c>
+      <c r="R28" s="3">
+        <v>2.0276999999999998</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0.36770000000000003</v>
+      </c>
+      <c r="T28" s="3">
+        <v>2.0327999999999999</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="V28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" s="3">
+        <v>6</v>
+      </c>
+      <c r="X28" s="3">
+        <v>2.0327999999999999</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29">
+        <v>128</v>
+      </c>
+      <c r="F29">
+        <v>256</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="H29">
+        <v>256</v>
+      </c>
+      <c r="I29">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" t="s">
         <v>48</v>
       </c>
-      <c r="E27">
-        <v>128</v>
-      </c>
-      <c r="F27">
-        <v>256</v>
-      </c>
-      <c r="G27">
-        <v>20</v>
-      </c>
-      <c r="H27">
-        <v>256</v>
-      </c>
-      <c r="I27">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27">
-        <v>1.6874</v>
-      </c>
-      <c r="N27">
-        <v>0.32950000000000002</v>
-      </c>
-      <c r="O27">
-        <v>1.5278</v>
-      </c>
-      <c r="P27">
-        <v>0.39190000000000003</v>
-      </c>
-      <c r="Q27">
-        <v>7</v>
-      </c>
-      <c r="R27">
-        <v>1.9809000000000001</v>
-      </c>
-      <c r="S27">
-        <v>0.37130000000000002</v>
-      </c>
-      <c r="T27">
-        <v>1.9842</v>
-      </c>
-      <c r="U27">
-        <v>0.36880000000000002</v>
-      </c>
-      <c r="AF27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG27">
-        <v>6</v>
-      </c>
-      <c r="AH27">
-        <v>2.3816999999999999</v>
-      </c>
-      <c r="AI27">
-        <v>0.35610000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28">
-        <v>128</v>
-      </c>
-      <c r="F28">
-        <v>256</v>
-      </c>
-      <c r="G28">
-        <v>20</v>
-      </c>
-      <c r="H28">
-        <v>256</v>
-      </c>
-      <c r="I28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28" t="s">
-        <v>38</v>
-      </c>
-      <c r="M28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>128</v>
@@ -2918,66 +3287,66 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>1.6420999999999999</v>
+        <v>1.6577999999999999</v>
       </c>
       <c r="N30">
-        <v>0.34410000000000002</v>
+        <v>0.33479999999999999</v>
       </c>
       <c r="O30">
-        <v>1.5164</v>
+        <v>1.4984999999999999</v>
       </c>
       <c r="P30">
-        <v>0.38479999999999998</v>
+        <v>0.39589999999999997</v>
       </c>
       <c r="Q30">
         <v>4</v>
       </c>
       <c r="R30">
-        <v>1.8866000000000001</v>
+        <v>2.1804999999999999</v>
       </c>
       <c r="S30">
-        <v>0.35830000000000001</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="T30">
-        <v>1.8829</v>
+        <v>2.1846999999999999</v>
       </c>
       <c r="U30">
-        <v>0.3579</v>
-      </c>
-      <c r="AF30" t="b">
+        <v>0.3619</v>
+      </c>
+      <c r="V30" t="b">
         <v>1</v>
       </c>
-      <c r="AG30">
-        <v>5</v>
-      </c>
-      <c r="AH30">
-        <v>1.9674</v>
-      </c>
-      <c r="AI30">
-        <v>0.35349999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="W30">
+        <v>4</v>
+      </c>
+      <c r="X30">
+        <v>2.1846000000000001</v>
+      </c>
+      <c r="Y30">
+        <v>0.3619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
         <v>41</v>
       </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="s">
-        <v>44</v>
-      </c>
       <c r="E31">
         <v>128</v>
       </c>
       <c r="F31">
-        <v>384</v>
+        <v>128</v>
       </c>
       <c r="G31">
         <v>20</v>
@@ -2989,66 +3358,51 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>38</v>
-      </c>
-      <c r="M31">
-        <v>1.6536999999999999</v>
+        <v>37</v>
       </c>
       <c r="N31">
-        <v>0.33729999999999999</v>
-      </c>
-      <c r="O31">
-        <v>1.516</v>
+        <v>0.30509999999999998</v>
       </c>
       <c r="P31">
-        <v>0.38950000000000001</v>
+        <v>0.38590000000000002</v>
       </c>
       <c r="Q31">
-        <v>5</v>
-      </c>
-      <c r="R31">
-        <v>1.9823</v>
+        <v>9</v>
       </c>
       <c r="S31">
-        <v>0.36149999999999999</v>
-      </c>
-      <c r="T31">
-        <v>1.9850000000000001</v>
+        <v>0.3735</v>
       </c>
       <c r="U31">
-        <v>0.35730000000000001</v>
-      </c>
-      <c r="AF31" t="b">
+        <v>0.37319999999999998</v>
+      </c>
+      <c r="V31" t="b">
         <v>1</v>
       </c>
-      <c r="AG31">
-        <v>5</v>
-      </c>
-      <c r="AH31">
-        <v>2.0817000000000001</v>
-      </c>
-      <c r="AI31">
-        <v>0.35410000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="W31">
+        <v>9</v>
+      </c>
+      <c r="Y31">
+        <v>0.37319999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E32">
         <v>128</v>
       </c>
       <c r="F32">
-        <v>384</v>
+        <v>64</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -3060,66 +3414,66 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>1.6484000000000001</v>
+        <v>1.8358000000000001</v>
       </c>
       <c r="N32">
-        <v>0.34110000000000001</v>
+        <v>0.28420000000000001</v>
       </c>
       <c r="O32">
-        <v>1.5148999999999999</v>
+        <v>1.6065</v>
       </c>
       <c r="P32">
-        <v>0.38850000000000001</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="Q32">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R32">
-        <v>2.0148999999999999</v>
+        <v>1.7036</v>
       </c>
       <c r="S32">
-        <v>0.35930000000000001</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="T32">
-        <v>2.0143</v>
+        <v>1.7000999999999999</v>
       </c>
       <c r="U32">
-        <v>0.36</v>
-      </c>
-      <c r="AF32" t="b">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="V32" t="b">
         <v>1</v>
       </c>
-      <c r="AG32">
-        <v>5</v>
-      </c>
-      <c r="AH32">
-        <v>2.1132</v>
-      </c>
-      <c r="AI32">
-        <v>0.35320000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="W32">
+        <v>9</v>
+      </c>
+      <c r="X32">
+        <v>1.7655000000000001</v>
+      </c>
+      <c r="Y32">
+        <v>0.36480000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E33">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F33">
-        <v>384</v>
+        <v>64</v>
       </c>
       <c r="G33">
         <v>20</v>
@@ -3131,66 +3485,66 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>1.6577</v>
+        <v>1.8084</v>
       </c>
       <c r="N33">
-        <v>0.33739999999999998</v>
+        <v>0.29320000000000002</v>
       </c>
       <c r="O33">
-        <v>1.5025999999999999</v>
+        <v>1.5981000000000001</v>
       </c>
       <c r="P33">
-        <v>0.39579999999999999</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="Q33">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R33">
-        <v>2.0838000000000001</v>
+        <v>1.7122999999999999</v>
       </c>
       <c r="S33">
-        <v>0.36720000000000003</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="T33">
-        <v>2.0920999999999998</v>
+        <v>1.7115</v>
       </c>
       <c r="U33">
-        <v>0.36409999999999998</v>
-      </c>
-      <c r="AF33" t="b">
+        <v>0.36709999999999998</v>
+      </c>
+      <c r="V33" t="b">
         <v>1</v>
       </c>
-      <c r="AG33">
-        <v>5</v>
-      </c>
-      <c r="AH33">
-        <v>2.1865000000000001</v>
-      </c>
-      <c r="AI33">
-        <v>0.3599</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="W33">
+        <v>8</v>
+      </c>
+      <c r="X33">
+        <v>1.8206</v>
+      </c>
+      <c r="Y33">
+        <v>0.36570000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E34">
         <v>128</v>
       </c>
       <c r="F34">
-        <v>384</v>
+        <v>128</v>
       </c>
       <c r="G34">
         <v>20</v>
@@ -3202,66 +3556,66 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>1.6560999999999999</v>
+        <v>1.7444999999999999</v>
       </c>
       <c r="N34">
-        <v>0.3377</v>
+        <v>0.30840000000000001</v>
       </c>
       <c r="O34">
-        <v>1.5039</v>
+        <v>1.5422</v>
       </c>
       <c r="P34">
-        <v>0.3962</v>
+        <v>0.37840000000000001</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R34">
-        <v>2.1444000000000001</v>
+        <v>1.6518999999999999</v>
       </c>
       <c r="S34">
-        <v>0.36559999999999998</v>
+        <v>0.36849999999999999</v>
       </c>
       <c r="T34">
-        <v>2.1480999999999999</v>
+        <v>1.6491</v>
       </c>
       <c r="U34">
-        <v>0.36409999999999998</v>
-      </c>
-      <c r="AF34" t="b">
+        <v>0.36890000000000001</v>
+      </c>
+      <c r="V34" t="b">
         <v>1</v>
       </c>
-      <c r="AG34">
-        <v>6</v>
-      </c>
-      <c r="AH34">
-        <v>2.2450999999999999</v>
-      </c>
-      <c r="AI34">
-        <v>0.36080000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="W34">
+        <v>8</v>
+      </c>
+      <c r="X34">
+        <v>1.7334000000000001</v>
+      </c>
+      <c r="Y34">
+        <v>0.3644</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35">
         <v>128</v>
       </c>
       <c r="F35">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="G35">
         <v>20</v>
@@ -3273,57 +3627,57 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>1.659</v>
+        <v>1.6767000000000001</v>
       </c>
       <c r="N35">
-        <v>0.33979999999999999</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="O35">
-        <v>1.5206999999999999</v>
+        <v>1.5321</v>
       </c>
       <c r="P35">
-        <v>0.39589999999999997</v>
+        <v>0.38329999999999997</v>
       </c>
       <c r="Q35">
         <v>6</v>
       </c>
       <c r="R35">
-        <v>2.1787000000000001</v>
+        <v>1.7765</v>
       </c>
       <c r="S35">
-        <v>0.3644</v>
+        <v>0.36309999999999998</v>
       </c>
       <c r="T35">
-        <v>2.1857000000000002</v>
+        <v>1.7771999999999999</v>
       </c>
       <c r="U35">
-        <v>0.3639</v>
-      </c>
-      <c r="AF35" t="b">
+        <v>0.3614</v>
+      </c>
+      <c r="V35" t="b">
         <v>1</v>
       </c>
-      <c r="AG35">
-        <v>6</v>
-      </c>
-      <c r="AH35">
-        <v>2.2812999999999999</v>
-      </c>
-      <c r="AI35">
-        <v>0.36049999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="W35">
+        <v>5</v>
+      </c>
+      <c r="X35">
+        <v>1.9783999999999999</v>
+      </c>
+      <c r="Y35">
+        <v>0.3528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
         <v>46</v>
@@ -3344,57 +3698,134 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>1.6577999999999999</v>
+        <v>1.6420999999999999</v>
       </c>
       <c r="N36">
-        <v>0.33479999999999999</v>
+        <v>0.34410000000000002</v>
       </c>
       <c r="O36">
-        <v>1.4984999999999999</v>
+        <v>1.5164</v>
       </c>
       <c r="P36">
-        <v>0.39589999999999997</v>
+        <v>0.38479999999999998</v>
       </c>
       <c r="Q36">
         <v>4</v>
       </c>
       <c r="R36">
-        <v>2.1804999999999999</v>
+        <v>1.8866000000000001</v>
       </c>
       <c r="S36">
-        <v>0.36259999999999998</v>
+        <v>0.35830000000000001</v>
       </c>
       <c r="T36">
-        <v>2.1846999999999999</v>
+        <v>1.8829</v>
       </c>
       <c r="U36">
-        <v>0.3619</v>
-      </c>
-      <c r="AF36" t="b">
+        <v>0.3579</v>
+      </c>
+      <c r="V36" t="b">
         <v>1</v>
       </c>
-      <c r="AG36">
-        <v>4</v>
-      </c>
-      <c r="AH36">
-        <v>2.1846000000000001</v>
-      </c>
-      <c r="AI36">
-        <v>0.3619</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="W36">
+        <v>5</v>
+      </c>
+      <c r="X36">
+        <v>1.9674</v>
+      </c>
+      <c r="Y36">
+        <v>0.35349999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>256</v>
+      </c>
+      <c r="F37">
+        <v>128</v>
+      </c>
+      <c r="G37">
+        <v>20</v>
+      </c>
+      <c r="H37">
+        <v>256</v>
+      </c>
+      <c r="I37">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37">
+        <v>1.7571000000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.30880000000000002</v>
+      </c>
+      <c r="O37">
+        <v>1.5528999999999999</v>
+      </c>
+      <c r="P37">
+        <v>0.38529999999999998</v>
+      </c>
+      <c r="Q37">
+        <v>9</v>
+      </c>
+      <c r="R37">
+        <v>1.919</v>
+      </c>
+      <c r="S37">
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="T37">
+        <v>1.9202999999999999</v>
+      </c>
+      <c r="U37">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="V37" t="b">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>7</v>
+      </c>
+      <c r="X37">
+        <v>2.0872999999999999</v>
+      </c>
+      <c r="Y37">
+        <v>0.36230000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>50</v>
@@ -3403,761 +3834,1383 @@
         <v>128</v>
       </c>
       <c r="F38">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="G38">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H38">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="I38">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="L38" t="s">
+        <v>70</v>
       </c>
       <c r="M38">
-        <v>1.8358000000000001</v>
+        <v>2.0954000000000002</v>
       </c>
       <c r="N38">
-        <v>0.28420000000000001</v>
+        <v>0.2261</v>
       </c>
       <c r="O38">
-        <v>1.6065</v>
+        <v>1.5822000000000001</v>
       </c>
       <c r="P38">
-        <v>0.36840000000000001</v>
+        <v>0.3614</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="R38">
-        <v>1.7036</v>
+        <v>1.6420999999999999</v>
       </c>
       <c r="S38">
-        <v>0.36559999999999998</v>
+        <v>0.35010000000000002</v>
       </c>
       <c r="T38">
-        <v>1.7000999999999999</v>
+        <v>1.6395999999999999</v>
       </c>
       <c r="U38">
-        <v>0.36609999999999998</v>
-      </c>
-      <c r="AF38" t="b">
+        <v>0.34939999999999999</v>
+      </c>
+      <c r="V38" t="b">
         <v>1</v>
       </c>
-      <c r="AG38">
-        <v>9</v>
-      </c>
-      <c r="AH38">
-        <v>1.7655000000000001</v>
-      </c>
-      <c r="AI38">
-        <v>0.36480000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="W38">
+        <v>18</v>
+      </c>
+      <c r="X38">
+        <v>1.6395999999999999</v>
+      </c>
+      <c r="Y38">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>50</v>
       </c>
       <c r="E39">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F39">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="G39">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="I39">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="L39" t="s">
+        <v>72</v>
       </c>
       <c r="M39">
-        <v>1.8084</v>
+        <v>2.2189999999999999</v>
       </c>
       <c r="N39">
-        <v>0.29320000000000002</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="O39">
-        <v>1.5981000000000001</v>
+        <v>1.5335000000000001</v>
       </c>
       <c r="P39">
-        <v>0.37080000000000002</v>
+        <v>0.38840000000000002</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="R39">
-        <v>1.7122999999999999</v>
+        <v>1.5969</v>
       </c>
       <c r="S39">
-        <v>0.36799999999999999</v>
+        <v>0.38379999999999997</v>
       </c>
       <c r="T39">
-        <v>1.7115</v>
+        <v>1.5922000000000001</v>
       </c>
       <c r="U39">
-        <v>0.36709999999999998</v>
-      </c>
-      <c r="AF39" t="b">
+        <v>0.38340000000000002</v>
+      </c>
+      <c r="V39" t="b">
         <v>1</v>
       </c>
-      <c r="AG39">
-        <v>8</v>
-      </c>
-      <c r="AH39">
-        <v>1.8206</v>
-      </c>
-      <c r="AI39">
-        <v>0.36570000000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="W39">
+        <v>12</v>
+      </c>
+      <c r="X39">
+        <v>1.6413</v>
+      </c>
+      <c r="Y39">
+        <v>0.38840000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F40">
         <v>128</v>
       </c>
       <c r="G40">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="I40">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="L40" t="s">
+        <v>73</v>
       </c>
       <c r="M40">
-        <v>1.7571000000000001</v>
+        <v>2.1838000000000002</v>
       </c>
       <c r="N40">
-        <v>0.30880000000000002</v>
+        <v>0.21909999999999999</v>
       </c>
       <c r="O40">
-        <v>1.5528999999999999</v>
+        <v>1.5639000000000001</v>
       </c>
       <c r="P40">
-        <v>0.38529999999999998</v>
+        <v>0.378</v>
       </c>
       <c r="Q40">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="R40">
-        <v>1.919</v>
+        <v>1.5880000000000001</v>
       </c>
       <c r="S40">
-        <v>0.36749999999999999</v>
+        <v>0.37619999999999998</v>
       </c>
       <c r="T40">
-        <v>1.9202999999999999</v>
+        <v>1.587</v>
       </c>
       <c r="U40">
-        <v>0.36609999999999998</v>
-      </c>
-      <c r="V40">
-        <v>6619</v>
+        <v>0.37430000000000002</v>
+      </c>
+      <c r="V40" t="b">
+        <v>1</v>
       </c>
       <c r="W40">
-        <v>39438</v>
+        <v>18</v>
       </c>
       <c r="X40">
-        <v>53529</v>
+        <v>1.6044</v>
       </c>
       <c r="Y40">
-        <v>36494</v>
-      </c>
-      <c r="Z40">
-        <v>34824</v>
-      </c>
-      <c r="AA40">
-        <v>24524</v>
-      </c>
-      <c r="AB40">
-        <v>15945</v>
-      </c>
-      <c r="AC40">
-        <v>7189</v>
-      </c>
-      <c r="AD40">
-        <v>3939</v>
-      </c>
-      <c r="AE40">
-        <v>2499</v>
-      </c>
-      <c r="AF40" t="b">
+        <v>0.37759999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>128</v>
+      </c>
+      <c r="F41">
+        <v>128</v>
+      </c>
+      <c r="G41">
+        <v>30</v>
+      </c>
+      <c r="H41">
+        <v>1024</v>
+      </c>
+      <c r="I41">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" t="s">
+        <v>68</v>
+      </c>
+      <c r="M41">
+        <v>1.8880999999999999</v>
+      </c>
+      <c r="N41">
+        <v>0.2757</v>
+      </c>
+      <c r="O41">
+        <v>1.5670999999999999</v>
+      </c>
+      <c r="P41">
+        <v>0.38069999999999998</v>
+      </c>
+      <c r="Q41">
+        <v>23</v>
+      </c>
+      <c r="R41">
+        <v>1.6128</v>
+      </c>
+      <c r="S41">
+        <v>0.36890000000000001</v>
+      </c>
+      <c r="T41">
+        <v>1.6102000000000001</v>
+      </c>
+      <c r="U41">
+        <v>0.36880000000000002</v>
+      </c>
+      <c r="V41" t="b">
         <v>1</v>
       </c>
-      <c r="AG40">
-        <v>7</v>
-      </c>
-      <c r="AH40">
-        <v>2.0872999999999999</v>
-      </c>
-      <c r="AI40">
-        <v>0.36230000000000001</v>
-      </c>
-      <c r="AJ40">
-        <v>6619</v>
-      </c>
-      <c r="AK40">
-        <v>39438</v>
-      </c>
-      <c r="AL40">
-        <v>53529</v>
-      </c>
-      <c r="AM40">
-        <v>36494</v>
-      </c>
-      <c r="AN40">
-        <v>34824</v>
-      </c>
-      <c r="AO40">
-        <v>24524</v>
-      </c>
-      <c r="AP40">
-        <v>15945</v>
-      </c>
-      <c r="AQ40">
-        <v>7189</v>
-      </c>
-      <c r="AR40">
-        <v>3939</v>
-      </c>
-      <c r="AS40">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41">
-        <v>256</v>
-      </c>
-      <c r="F41">
-        <v>128</v>
-      </c>
-      <c r="G41">
-        <v>20</v>
-      </c>
-      <c r="H41">
-        <v>256</v>
-      </c>
-      <c r="I41">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J41" t="s">
-        <v>41</v>
-      </c>
-      <c r="K41" t="s">
-        <v>38</v>
-      </c>
-      <c r="M41">
-        <v>1.9160999999999999</v>
-      </c>
-      <c r="N41">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="O41">
-        <v>2.0728</v>
-      </c>
-      <c r="P41">
-        <v>0.30759999999999998</v>
-      </c>
-      <c r="Q41">
-        <v>9</v>
-      </c>
-      <c r="R41">
-        <v>2.8119000000000001</v>
-      </c>
-      <c r="S41">
-        <v>0.30349999999999999</v>
-      </c>
-      <c r="T41">
-        <v>2.7982999999999998</v>
-      </c>
-      <c r="U41">
-        <v>0.30659999999999998</v>
-      </c>
-      <c r="V41">
-        <v>20405</v>
-      </c>
       <c r="W41">
-        <v>34764</v>
+        <v>14</v>
       </c>
       <c r="X41">
-        <v>54931</v>
+        <v>1.6169</v>
       </c>
       <c r="Y41">
-        <v>36896</v>
-      </c>
-      <c r="Z41">
-        <v>32649</v>
-      </c>
-      <c r="AA41">
-        <v>20730</v>
-      </c>
-      <c r="AB41">
-        <v>13754</v>
-      </c>
-      <c r="AC41">
-        <v>6169</v>
-      </c>
-      <c r="AD41">
-        <v>2941</v>
-      </c>
-      <c r="AE41">
-        <v>1761</v>
-      </c>
-      <c r="AF41" t="b">
+        <v>0.37980000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>128</v>
+      </c>
+      <c r="F42">
+        <v>64</v>
+      </c>
+      <c r="G42">
+        <v>60</v>
+      </c>
+      <c r="H42">
+        <v>1024</v>
+      </c>
+      <c r="I42">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" t="s">
+        <v>74</v>
+      </c>
+      <c r="M42">
+        <v>2.2145999999999999</v>
+      </c>
+      <c r="N42">
+        <v>0.25509999999999999</v>
+      </c>
+      <c r="O42">
+        <v>1.5928</v>
+      </c>
+      <c r="P42">
+        <v>0.3679</v>
+      </c>
+      <c r="Q42">
+        <v>37</v>
+      </c>
+      <c r="R42">
+        <v>1.6735</v>
+      </c>
+      <c r="S42">
+        <v>0.35880000000000001</v>
+      </c>
+      <c r="T42">
+        <v>1.6731</v>
+      </c>
+      <c r="U42">
+        <v>0.3584</v>
+      </c>
+      <c r="V42" t="b">
         <v>1</v>
       </c>
-      <c r="AG41">
-        <v>5</v>
-      </c>
-      <c r="AH41">
-        <v>2.0872999999999999</v>
-      </c>
-      <c r="AI41">
-        <v>0.36230000000000001</v>
-      </c>
-      <c r="AJ41">
-        <v>19841</v>
-      </c>
-      <c r="AK41">
-        <v>34073</v>
-      </c>
-      <c r="AL41">
-        <v>58153</v>
-      </c>
-      <c r="AM41">
-        <v>35304</v>
-      </c>
-      <c r="AN41">
-        <v>31729</v>
-      </c>
-      <c r="AO41">
-        <v>21245</v>
-      </c>
-      <c r="AP41">
-        <v>13839</v>
-      </c>
-      <c r="AQ41">
-        <v>5885</v>
-      </c>
-      <c r="AR41">
-        <v>3126</v>
-      </c>
-      <c r="AS41">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42">
-        <v>781240</v>
-      </c>
-      <c r="E42">
-        <v>32</v>
-      </c>
-      <c r="F42">
-        <v>32</v>
-      </c>
-      <c r="G42">
-        <v>20</v>
-      </c>
-      <c r="H42">
-        <v>256</v>
-      </c>
-      <c r="I42">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J42" t="s">
-        <v>41</v>
-      </c>
-      <c r="K42" t="s">
-        <v>38</v>
-      </c>
-      <c r="M42">
-        <v>1.7547999999999999</v>
-      </c>
-      <c r="N42">
-        <v>0.30940000000000001</v>
-      </c>
-      <c r="O42">
-        <v>1.5333000000000001</v>
-      </c>
-      <c r="P42">
-        <v>0.38640000000000002</v>
-      </c>
-      <c r="Q42">
-        <v>9</v>
-      </c>
-      <c r="R42">
-        <v>1.9014</v>
-      </c>
-      <c r="S42">
-        <v>0.37109999999999999</v>
-      </c>
-      <c r="T42">
-        <v>1.9019999999999999</v>
-      </c>
-      <c r="U42">
-        <v>0.37030000000000002</v>
-      </c>
-      <c r="AF42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG42">
-        <v>10</v>
-      </c>
-      <c r="AH42">
-        <v>2.0451000000000001</v>
-      </c>
-      <c r="AI42">
-        <v>0.36670000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="W42">
+        <v>24</v>
+      </c>
+      <c r="X42">
+        <v>1.6591</v>
+      </c>
+      <c r="Y42">
+        <v>0.36280000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E43">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F43">
         <v>32</v>
       </c>
       <c r="G43">
+        <v>60</v>
+      </c>
+      <c r="H43">
+        <v>1024</v>
+      </c>
+      <c r="I43">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" t="s">
+        <v>67</v>
+      </c>
+      <c r="L43" t="s">
+        <v>78</v>
+      </c>
+      <c r="M43">
+        <v>2.2212000000000001</v>
+      </c>
+      <c r="N43">
+        <v>0.15659999999999999</v>
+      </c>
+      <c r="O43">
+        <v>1.667</v>
+      </c>
+      <c r="P43">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="Q43">
+        <v>52</v>
+      </c>
+      <c r="R43">
+        <v>1.6689000000000001</v>
+      </c>
+      <c r="S43">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="T43">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="U43">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="V43" t="b">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>24</v>
+      </c>
+      <c r="X43">
+        <v>1.659</v>
+      </c>
+      <c r="Y43">
+        <v>0.33650000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>128</v>
+      </c>
+      <c r="F44">
+        <v>64</v>
+      </c>
+      <c r="G44">
+        <v>60</v>
+      </c>
+      <c r="H44">
+        <v>1024</v>
+      </c>
+      <c r="I44">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" t="s">
+        <v>67</v>
+      </c>
+      <c r="L44" t="s">
+        <v>75</v>
+      </c>
+      <c r="M44">
+        <v>2.3035999999999999</v>
+      </c>
+      <c r="N44">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O44">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="P44">
+        <v>0.373</v>
+      </c>
+      <c r="Q44">
+        <v>41</v>
+      </c>
+      <c r="R44">
+        <v>1.821</v>
+      </c>
+      <c r="S44">
+        <v>0.36580000000000001</v>
+      </c>
+      <c r="T44">
+        <v>1.8170999999999999</v>
+      </c>
+      <c r="U44">
+        <v>0.3649</v>
+      </c>
+      <c r="V44" t="b">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>24</v>
+      </c>
+      <c r="X44">
+        <v>1.8449</v>
+      </c>
+      <c r="Y44">
+        <v>0.36759999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="3">
+        <v>256</v>
+      </c>
+      <c r="F45" s="3">
+        <v>128</v>
+      </c>
+      <c r="G45" s="3">
+        <v>60</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1024</v>
+      </c>
+      <c r="I45" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M45" s="3">
+        <v>2.1004999999999998</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.2858</v>
+      </c>
+      <c r="O45" s="3">
+        <v>1.5051000000000001</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0.39510000000000001</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>18</v>
+      </c>
+      <c r="R45" s="3">
+        <v>1.7202999999999999</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="T45" s="3">
+        <v>1.7168000000000001</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0.38350000000000001</v>
+      </c>
+      <c r="V45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W45" s="3">
+        <v>19</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="3">
+        <v>128</v>
+      </c>
+      <c r="F46" s="3">
+        <v>128</v>
+      </c>
+      <c r="G46" s="3">
+        <v>30</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1024</v>
+      </c>
+      <c r="I46" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M46" s="3">
+        <v>2.4094000000000002</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.22589999999999999</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1.5186999999999999</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0.40010000000000001</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>23</v>
+      </c>
+      <c r="R46" s="3">
+        <v>1.5647</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="T46" s="3">
+        <v>1.5626</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0.39140000000000003</v>
+      </c>
+      <c r="V46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W46" s="3">
+        <v>18</v>
+      </c>
+      <c r="X46" s="3">
+        <v>1.5791999999999999</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0.40089999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="2">
+        <v>128</v>
+      </c>
+      <c r="F47" s="2">
+        <v>128</v>
+      </c>
+      <c r="G47" s="2">
+        <v>60</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1024</v>
+      </c>
+      <c r="I47" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M47" s="2">
+        <v>2.1905000000000001</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0.2414</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1.5841000000000001</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0.39229999999999998</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>31</v>
+      </c>
+      <c r="R47" s="2">
+        <v>1.7931999999999999</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0.37769999999999998</v>
+      </c>
+      <c r="T47" s="2">
+        <v>1.7871999999999999</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0.37840000000000001</v>
+      </c>
+      <c r="V47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W47" s="2">
+        <v>18</v>
+      </c>
+      <c r="X47" s="2">
+        <v>1.7818000000000001</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>0.37809999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>128</v>
+      </c>
+      <c r="F48">
+        <v>192</v>
+      </c>
+      <c r="G48">
+        <v>60</v>
+      </c>
+      <c r="H48">
+        <v>1024</v>
+      </c>
+      <c r="I48">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" t="s">
+        <v>77</v>
+      </c>
+      <c r="M48">
+        <v>2.2018</v>
+      </c>
+      <c r="N48">
+        <v>0.25059999999999999</v>
+      </c>
+      <c r="O48">
+        <v>1.5873999999999999</v>
+      </c>
+      <c r="P48">
+        <v>0.39589999999999997</v>
+      </c>
+      <c r="Q48">
+        <v>23</v>
+      </c>
+      <c r="R48">
+        <v>1.9281999999999999</v>
+      </c>
+      <c r="S48">
+        <v>0.37769999999999998</v>
+      </c>
+      <c r="T48">
+        <v>1.9201999999999999</v>
+      </c>
+      <c r="U48">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="V48" t="b">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>13</v>
+      </c>
+      <c r="X48">
+        <v>1.883</v>
+      </c>
+      <c r="Y48">
+        <v>0.37909999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49">
+        <v>128</v>
+      </c>
+      <c r="F49">
+        <v>128</v>
+      </c>
+      <c r="G49">
         <v>20</v>
       </c>
-      <c r="H43">
+      <c r="H49">
         <v>256</v>
       </c>
-      <c r="I43">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J43" t="s">
-        <v>41</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="I49">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K49" t="s">
+        <v>37</v>
+      </c>
+      <c r="N49">
+        <v>0.30630000000000002</v>
+      </c>
+      <c r="P49">
+        <v>0.3836</v>
+      </c>
+      <c r="Q49">
+        <v>9</v>
+      </c>
+      <c r="S49">
+        <v>0.36909999999999998</v>
+      </c>
+      <c r="U49">
+        <v>0.36980000000000002</v>
+      </c>
+      <c r="V49" t="b">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>9</v>
+      </c>
+      <c r="Y49">
+        <v>0.36980000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50">
+        <v>128</v>
+      </c>
+      <c r="F50">
+        <v>128</v>
+      </c>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>256</v>
+      </c>
+      <c r="I50">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>40</v>
+      </c>
+      <c r="K50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50">
+        <v>1.7407999999999999</v>
+      </c>
+      <c r="N50">
+        <v>0.30790000000000001</v>
+      </c>
+      <c r="O50">
+        <v>1.5374000000000001</v>
+      </c>
+      <c r="P50">
+        <v>0.38290000000000002</v>
+      </c>
+      <c r="Q50">
+        <v>8</v>
+      </c>
+      <c r="R50">
+        <v>1.6959</v>
+      </c>
+      <c r="S50">
+        <v>0.37180000000000002</v>
+      </c>
+      <c r="T50">
+        <v>1.6967000000000001</v>
+      </c>
+      <c r="U50">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="V50" t="b">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>7</v>
+      </c>
+      <c r="X50">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0.36359999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>38</v>
       </c>
-      <c r="M43">
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51">
+        <v>128</v>
+      </c>
+      <c r="F51">
+        <v>256</v>
+      </c>
+      <c r="G51">
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <v>256</v>
+      </c>
+      <c r="I51">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K51" t="s">
+        <v>37</v>
+      </c>
+      <c r="N51">
+        <v>0.32950000000000002</v>
+      </c>
+      <c r="P51">
+        <v>0.39419999999999999</v>
+      </c>
+      <c r="Q51">
+        <v>6</v>
+      </c>
+      <c r="S51">
+        <v>0.37230000000000002</v>
+      </c>
+      <c r="U51">
+        <v>0.371</v>
+      </c>
+      <c r="V51" t="b">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>6</v>
+      </c>
+      <c r="Y51">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52">
+        <v>128</v>
+      </c>
+      <c r="F52">
+        <v>256</v>
+      </c>
+      <c r="G52">
+        <v>20</v>
+      </c>
+      <c r="H52">
+        <v>256</v>
+      </c>
+      <c r="I52">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" t="s">
+        <v>37</v>
+      </c>
+      <c r="M52">
+        <v>1.6817</v>
+      </c>
+      <c r="N52">
+        <v>0.33079999999999998</v>
+      </c>
+      <c r="O52">
+        <v>1.5185</v>
+      </c>
+      <c r="P52">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="Q52">
+        <v>5</v>
+      </c>
+      <c r="R52">
+        <v>1.8625</v>
+      </c>
+      <c r="S52">
+        <v>0.36420000000000002</v>
+      </c>
+      <c r="T52">
+        <v>1.8641000000000001</v>
+      </c>
+      <c r="U52">
+        <v>0.36209999999999998</v>
+      </c>
+      <c r="V52" t="b">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>6</v>
+      </c>
+      <c r="X52">
+        <v>2.13</v>
+      </c>
+      <c r="Y52">
+        <v>0.35170000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53">
+        <v>128</v>
+      </c>
+      <c r="F53">
+        <v>384</v>
+      </c>
+      <c r="G53">
+        <v>20</v>
+      </c>
+      <c r="H53">
+        <v>256</v>
+      </c>
+      <c r="I53">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K53" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53">
+        <v>1.6536999999999999</v>
+      </c>
+      <c r="N53">
+        <v>0.33729999999999999</v>
+      </c>
+      <c r="O53">
+        <v>1.516</v>
+      </c>
+      <c r="P53">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="Q53">
+        <v>5</v>
+      </c>
+      <c r="R53">
+        <v>1.9823</v>
+      </c>
+      <c r="S53">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="T53">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="U53">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="V53" t="b">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>5</v>
+      </c>
+      <c r="X53">
+        <v>2.0817000000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0.35410000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54">
+        <v>32</v>
+      </c>
+      <c r="F54">
+        <v>32</v>
+      </c>
+      <c r="G54">
+        <v>20</v>
+      </c>
+      <c r="H54">
+        <v>256</v>
+      </c>
+      <c r="I54">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" t="s">
+        <v>37</v>
+      </c>
+      <c r="M54">
         <v>1.8934</v>
       </c>
-      <c r="N43">
+      <c r="N54">
         <v>0.26379999999999998</v>
       </c>
-      <c r="O43">
+      <c r="O54">
         <v>1.6702999999999999</v>
       </c>
-      <c r="P43">
+      <c r="P54">
         <v>0.34989999999999999</v>
       </c>
-      <c r="Q43">
+      <c r="Q54">
         <v>18</v>
       </c>
-      <c r="R43">
+      <c r="R54">
         <v>1.6872</v>
       </c>
-      <c r="S43">
+      <c r="S54">
         <v>0.34899999999999998</v>
       </c>
-      <c r="T43">
+      <c r="T54">
         <v>1.6860999999999999</v>
       </c>
-      <c r="U43">
+      <c r="U54">
         <v>0.34910000000000002</v>
       </c>
-      <c r="AF43" t="b">
+      <c r="V54" t="b">
         <v>1</v>
       </c>
-      <c r="AG43">
+      <c r="W54">
         <v>10</v>
       </c>
-      <c r="AH43">
+      <c r="X54">
         <v>1.7218</v>
       </c>
-      <c r="AI43">
+      <c r="Y54">
         <v>0.35120000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44">
-        <v>128</v>
-      </c>
-      <c r="F44">
-        <v>128</v>
-      </c>
-      <c r="G44">
-        <v>20</v>
-      </c>
-      <c r="H44">
-        <v>256</v>
-      </c>
-      <c r="I44">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J44" t="s">
-        <v>41</v>
-      </c>
-      <c r="K44" t="s">
-        <v>38</v>
-      </c>
-      <c r="M44">
-        <v>1.8889</v>
-      </c>
-      <c r="N44">
-        <v>0.26450000000000001</v>
-      </c>
-      <c r="O44">
-        <v>1.6321000000000001</v>
-      </c>
-      <c r="P44">
-        <v>0.35210000000000002</v>
-      </c>
-      <c r="Q44">
-        <v>14</v>
-      </c>
-      <c r="R44">
-        <v>1.6967000000000001</v>
-      </c>
-      <c r="S44">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="T44">
-        <v>1.6914</v>
-      </c>
-      <c r="U44">
-        <v>0.3518</v>
-      </c>
-      <c r="AF44" t="b">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55">
+        <v>128</v>
+      </c>
+      <c r="F55">
+        <v>32</v>
+      </c>
+      <c r="G55">
+        <v>30</v>
+      </c>
+      <c r="H55">
+        <v>1024</v>
+      </c>
+      <c r="I55">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>40</v>
+      </c>
+      <c r="K55" t="s">
+        <v>37</v>
+      </c>
+      <c r="M55">
+        <v>1.9864999999999999</v>
+      </c>
+      <c r="N55">
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="O55">
+        <v>1.6303000000000001</v>
+      </c>
+      <c r="P55">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="Q55">
+        <v>25</v>
+      </c>
+      <c r="R55">
+        <v>1.6740999999999999</v>
+      </c>
+      <c r="S55">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="T55">
+        <v>1.6714</v>
+      </c>
+      <c r="U55">
+        <v>0.35470000000000002</v>
+      </c>
+      <c r="V55" t="b">
         <v>1</v>
       </c>
-      <c r="AG44">
-        <v>10</v>
-      </c>
-      <c r="AH44">
-        <v>1.7713000000000001</v>
-      </c>
-      <c r="AI44">
-        <v>0.35070000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45">
-        <v>64</v>
-      </c>
-      <c r="F45">
+      <c r="W55">
+        <v>17</v>
+      </c>
+      <c r="X55">
+        <v>1.8012999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0.35139999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56">
+        <v>1024</v>
+      </c>
+      <c r="F56">
         <v>32</v>
       </c>
-      <c r="G45">
-        <v>20</v>
-      </c>
-      <c r="H45">
-        <v>256</v>
-      </c>
-      <c r="I45">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K45" t="s">
-        <v>38</v>
-      </c>
-      <c r="M45">
-        <v>1.8889</v>
-      </c>
-      <c r="N45">
-        <v>0.26450000000000001</v>
-      </c>
-      <c r="O45">
-        <v>1.6321000000000001</v>
-      </c>
-      <c r="P45">
-        <v>0.35210000000000002</v>
-      </c>
-      <c r="Q45">
-        <v>14</v>
-      </c>
-      <c r="R45">
-        <v>1.6967000000000001</v>
-      </c>
-      <c r="S45">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="T45">
-        <v>1.6914</v>
-      </c>
-      <c r="U45">
-        <v>0.3518</v>
-      </c>
-      <c r="AF45" t="b">
+      <c r="G56">
+        <v>40</v>
+      </c>
+      <c r="H56">
+        <v>512</v>
+      </c>
+      <c r="I56">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>40</v>
+      </c>
+      <c r="K56" t="s">
+        <v>37</v>
+      </c>
+      <c r="M56">
+        <v>1.9340999999999999</v>
+      </c>
+      <c r="N56">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="O56">
+        <v>1.5968</v>
+      </c>
+      <c r="P56">
+        <v>0.3619</v>
+      </c>
+      <c r="Q56">
+        <v>17</v>
+      </c>
+      <c r="R56">
+        <v>1.8701000000000001</v>
+      </c>
+      <c r="S56">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="T56">
+        <v>1.8635999999999999</v>
+      </c>
+      <c r="U56">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="V56" t="b">
         <v>1</v>
       </c>
-      <c r="AG45">
-        <v>10</v>
-      </c>
-      <c r="AH45">
-        <v>1.7713000000000001</v>
-      </c>
-      <c r="AI45">
-        <v>0.35070000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48">
-        <v>781240</v>
-      </c>
-      <c r="E48">
-        <v>128</v>
-      </c>
-      <c r="F48">
-        <v>128</v>
-      </c>
-      <c r="G48">
-        <v>20</v>
-      </c>
-      <c r="H48">
-        <v>256</v>
-      </c>
-      <c r="I48">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J48" t="s">
-        <v>41</v>
-      </c>
-      <c r="K48" t="s">
-        <v>55</v>
-      </c>
-      <c r="L48" t="s">
-        <v>56</v>
-      </c>
-      <c r="M48">
-        <v>1.7804</v>
-      </c>
-      <c r="N48">
-        <v>0.2994</v>
-      </c>
-      <c r="O48">
-        <v>1.536</v>
-      </c>
-      <c r="P48">
-        <v>0.38369999999999999</v>
-      </c>
-      <c r="Q48">
-        <v>14</v>
-      </c>
-      <c r="R48">
-        <v>1.5578000000000001</v>
-      </c>
-      <c r="S48">
-        <v>0.38240000000000002</v>
-      </c>
-      <c r="T48">
-        <v>1.5555000000000001</v>
-      </c>
-      <c r="U48">
-        <v>0.38219999999999998</v>
-      </c>
-      <c r="AF48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG48">
+      <c r="W56">
         <v>15</v>
       </c>
-      <c r="AH48">
-        <v>1.5567</v>
-      </c>
-      <c r="AI48">
-        <v>0.39410000000000001</v>
+      <c r="X56">
+        <v>1.9984</v>
+      </c>
+      <c r="Y56">
+        <v>0.34699999999999998</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:Y52">
+    <sortCondition ref="D2:D52"/>
+    <sortCondition ref="G2:G52"/>
+    <sortCondition ref="F2:F52"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4166,22 +5219,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5" customWidth="1"/>
+    <col min="12" max="12" width="45.125" customWidth="1"/>
+    <col min="13" max="13" width="17.25" customWidth="1"/>
+    <col min="14" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4189,108 +5242,2286 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2">
+        <v>8799</v>
+      </c>
+      <c r="O2">
+        <v>37318</v>
+      </c>
+      <c r="P2">
+        <v>50727</v>
+      </c>
+      <c r="Q2">
+        <v>37644</v>
+      </c>
+      <c r="R2">
+        <v>32667</v>
+      </c>
+      <c r="S2">
+        <v>25430</v>
+      </c>
+      <c r="T2">
+        <v>16678</v>
+      </c>
+      <c r="U2">
+        <v>7992</v>
+      </c>
+      <c r="V2">
+        <v>4868</v>
+      </c>
+      <c r="W2">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>512</v>
+      </c>
+      <c r="I3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3">
+        <v>4971</v>
+      </c>
+      <c r="O3">
+        <v>28259</v>
+      </c>
+      <c r="P3">
+        <v>65313</v>
+      </c>
+      <c r="Q3">
+        <v>49085</v>
+      </c>
+      <c r="R3">
+        <v>38574</v>
+      </c>
+      <c r="S3">
+        <v>25246</v>
+      </c>
+      <c r="T3">
+        <v>7690</v>
+      </c>
+      <c r="U3">
+        <v>3003</v>
+      </c>
+      <c r="V3">
+        <v>1297</v>
+      </c>
+      <c r="W3">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>128</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>512</v>
+      </c>
+      <c r="I4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4">
+        <v>6736</v>
+      </c>
+      <c r="O4">
+        <v>30135</v>
+      </c>
+      <c r="P4">
+        <v>62548</v>
+      </c>
+      <c r="Q4">
+        <v>46417</v>
+      </c>
+      <c r="R4">
+        <v>30527</v>
+      </c>
+      <c r="S4">
+        <v>24736</v>
+      </c>
+      <c r="T4">
+        <v>16638</v>
+      </c>
+      <c r="U4">
+        <v>3606</v>
+      </c>
+      <c r="V4">
+        <v>891</v>
+      </c>
+      <c r="W4">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="H5">
+        <v>1024</v>
+      </c>
+      <c r="I5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5">
+        <v>4806</v>
+      </c>
+      <c r="O5">
+        <v>39449</v>
+      </c>
+      <c r="P5">
+        <v>60325</v>
+      </c>
+      <c r="Q5">
+        <v>37512</v>
+      </c>
+      <c r="R5">
+        <v>32197</v>
+      </c>
+      <c r="S5">
+        <v>28727</v>
+      </c>
+      <c r="T5">
+        <v>11602</v>
+      </c>
+      <c r="U5">
+        <v>5813</v>
+      </c>
+      <c r="V5">
+        <v>2806</v>
+      </c>
+      <c r="W5">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>128</v>
+      </c>
+      <c r="F6">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E40">
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>1024</v>
+      </c>
+      <c r="I6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6">
+        <v>5259</v>
+      </c>
+      <c r="O6">
+        <v>40189</v>
+      </c>
+      <c r="P6">
+        <v>58360</v>
+      </c>
+      <c r="Q6">
+        <v>36746</v>
+      </c>
+      <c r="R6">
+        <v>32078</v>
+      </c>
+      <c r="S6">
+        <v>27042</v>
+      </c>
+      <c r="T6">
+        <v>13633</v>
+      </c>
+      <c r="U6">
+        <v>5963</v>
+      </c>
+      <c r="V6">
+        <v>3643</v>
+      </c>
+      <c r="W6">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>128</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>1024</v>
+      </c>
+      <c r="I7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7">
+        <v>2165</v>
+      </c>
+      <c r="O7">
+        <v>22617</v>
+      </c>
+      <c r="P7">
+        <v>64599</v>
+      </c>
+      <c r="Q7">
+        <v>51260</v>
+      </c>
+      <c r="R7">
+        <v>40655</v>
+      </c>
+      <c r="S7">
+        <v>24823</v>
+      </c>
+      <c r="T7">
+        <v>11541</v>
+      </c>
+      <c r="U7">
+        <v>4125</v>
+      </c>
+      <c r="V7">
+        <v>2075</v>
+      </c>
+      <c r="W7">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>128</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>1024</v>
+      </c>
+      <c r="I8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8">
+        <v>2625</v>
+      </c>
+      <c r="O8">
+        <v>30521</v>
+      </c>
+      <c r="P8">
+        <v>66962</v>
+      </c>
+      <c r="Q8">
+        <v>42566</v>
+      </c>
+      <c r="R8">
+        <v>36031</v>
+      </c>
+      <c r="S8">
+        <v>26387</v>
+      </c>
+      <c r="T8">
+        <v>12314</v>
+      </c>
+      <c r="U8">
+        <v>4257</v>
+      </c>
+      <c r="V8">
+        <v>2244</v>
+      </c>
+      <c r="W8">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>256</v>
+      </c>
+      <c r="F9">
+        <v>128</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9">
         <v>6619</v>
       </c>
-      <c r="F40">
+      <c r="O9">
         <v>39438</v>
       </c>
-      <c r="G40">
+      <c r="P9">
         <v>53529</v>
       </c>
-      <c r="H40">
+      <c r="Q9">
         <v>36494</v>
       </c>
-      <c r="I40">
+      <c r="R9">
         <v>34824</v>
       </c>
-      <c r="J40">
+      <c r="S9">
         <v>24524</v>
       </c>
-      <c r="K40">
+      <c r="T9">
         <v>15945</v>
       </c>
-      <c r="L40">
+      <c r="U9">
         <v>7189</v>
       </c>
-      <c r="M40">
+      <c r="V9">
         <v>3939</v>
       </c>
-      <c r="N40">
+      <c r="W9">
         <v>2499</v>
       </c>
     </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E41">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>256</v>
+      </c>
+      <c r="F10">
+        <v>128</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10">
+        <v>6619</v>
+      </c>
+      <c r="O10">
+        <v>39438</v>
+      </c>
+      <c r="P10">
+        <v>53529</v>
+      </c>
+      <c r="Q10">
+        <v>36494</v>
+      </c>
+      <c r="R10">
+        <v>34824</v>
+      </c>
+      <c r="S10">
+        <v>24524</v>
+      </c>
+      <c r="T10">
+        <v>15945</v>
+      </c>
+      <c r="U10">
+        <v>7189</v>
+      </c>
+      <c r="V10">
+        <v>3939</v>
+      </c>
+      <c r="W10">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>128</v>
+      </c>
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>1024</v>
+      </c>
+      <c r="I11">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11">
+        <v>4655</v>
+      </c>
+      <c r="O11">
+        <v>37283</v>
+      </c>
+      <c r="P11">
+        <v>61123</v>
+      </c>
+      <c r="Q11">
+        <v>35865</v>
+      </c>
+      <c r="R11">
+        <v>35060</v>
+      </c>
+      <c r="S11">
+        <v>28888</v>
+      </c>
+      <c r="T11">
+        <v>14967</v>
+      </c>
+      <c r="U11">
+        <v>3552</v>
+      </c>
+      <c r="V11">
+        <v>2333</v>
+      </c>
+      <c r="W11">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>128</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>1024</v>
+      </c>
+      <c r="I12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12">
+        <v>5414</v>
+      </c>
+      <c r="O12">
+        <v>38568</v>
+      </c>
+      <c r="P12">
+        <v>56934</v>
+      </c>
+      <c r="Q12">
+        <v>34951</v>
+      </c>
+      <c r="R12">
+        <v>36686</v>
+      </c>
+      <c r="S12">
+        <v>26929</v>
+      </c>
+      <c r="T12">
+        <v>15145</v>
+      </c>
+      <c r="U12">
+        <v>5207</v>
+      </c>
+      <c r="V12">
+        <v>3244</v>
+      </c>
+      <c r="W12">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13">
+        <v>1024</v>
+      </c>
+      <c r="F13">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>512</v>
+      </c>
+      <c r="I13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13">
+        <v>5708</v>
+      </c>
+      <c r="O13">
+        <v>39729</v>
+      </c>
+      <c r="P13">
+        <v>56759</v>
+      </c>
+      <c r="Q13">
+        <v>38830</v>
+      </c>
+      <c r="R13">
+        <v>32682</v>
+      </c>
+      <c r="S13">
+        <v>26487</v>
+      </c>
+      <c r="T13">
+        <v>14392</v>
+      </c>
+      <c r="U13">
+        <v>5758</v>
+      </c>
+      <c r="V13">
+        <v>2735</v>
+      </c>
+      <c r="W13">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14">
+        <v>1024</v>
+      </c>
+      <c r="F14">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>512</v>
+      </c>
+      <c r="I14">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14">
+        <v>6682</v>
+      </c>
+      <c r="O14">
+        <v>38529</v>
+      </c>
+      <c r="P14">
+        <v>54271</v>
+      </c>
+      <c r="Q14">
+        <v>38841</v>
+      </c>
+      <c r="R14">
+        <v>33662</v>
+      </c>
+      <c r="S14">
+        <v>25220</v>
+      </c>
+      <c r="T14">
+        <v>15972</v>
+      </c>
+      <c r="U14">
+        <v>6217</v>
+      </c>
+      <c r="V14">
+        <v>3324</v>
+      </c>
+      <c r="W14">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>128</v>
+      </c>
+      <c r="F15">
+        <v>128</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>1024</v>
+      </c>
+      <c r="I15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15">
+        <v>1873</v>
+      </c>
+      <c r="O15">
+        <v>31387</v>
+      </c>
+      <c r="P15">
+        <v>70083</v>
+      </c>
+      <c r="Q15">
+        <v>36411</v>
+      </c>
+      <c r="R15">
+        <v>42808</v>
+      </c>
+      <c r="S15">
+        <v>29285</v>
+      </c>
+      <c r="T15">
+        <v>11070</v>
+      </c>
+      <c r="U15">
+        <v>1759</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>128</v>
+      </c>
+      <c r="F16">
+        <v>128</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>1024</v>
+      </c>
+      <c r="I16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16">
+        <v>2283</v>
+      </c>
+      <c r="O16">
+        <v>30468</v>
+      </c>
+      <c r="P16">
+        <v>66004</v>
+      </c>
+      <c r="Q16">
+        <v>38465</v>
+      </c>
+      <c r="R16">
+        <v>43748</v>
+      </c>
+      <c r="S16">
+        <v>29032</v>
+      </c>
+      <c r="T16">
+        <v>11140</v>
+      </c>
+      <c r="U16">
+        <v>2693</v>
+      </c>
+      <c r="V16">
+        <v>1042</v>
+      </c>
+      <c r="W16">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>128</v>
+      </c>
+      <c r="F17">
+        <v>128</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>1024</v>
+      </c>
+      <c r="I17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17">
+        <v>1785</v>
+      </c>
+      <c r="O17">
+        <v>10256</v>
+      </c>
+      <c r="P17">
+        <v>99567</v>
+      </c>
+      <c r="Q17">
+        <v>53459</v>
+      </c>
+      <c r="R17">
+        <v>32548</v>
+      </c>
+      <c r="S17">
+        <v>17137</v>
+      </c>
+      <c r="T17">
+        <v>7776</v>
+      </c>
+      <c r="U17">
+        <v>2269</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>128</v>
+      </c>
+      <c r="F18">
+        <v>128</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>1024</v>
+      </c>
+      <c r="I18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18">
+        <v>2283</v>
+      </c>
+      <c r="O18">
+        <v>30468</v>
+      </c>
+      <c r="P18">
+        <v>66004</v>
+      </c>
+      <c r="Q18">
+        <v>38465</v>
+      </c>
+      <c r="R18">
+        <v>43748</v>
+      </c>
+      <c r="S18">
+        <v>29032</v>
+      </c>
+      <c r="T18">
+        <v>11140</v>
+      </c>
+      <c r="U18">
+        <v>2693</v>
+      </c>
+      <c r="V18">
+        <v>1042</v>
+      </c>
+      <c r="W18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>128</v>
+      </c>
+      <c r="F19">
+        <v>128</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>1024</v>
+      </c>
+      <c r="I19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19">
+        <v>2966</v>
+      </c>
+      <c r="O19">
+        <v>27125</v>
+      </c>
+      <c r="P19">
+        <v>64960</v>
+      </c>
+      <c r="Q19">
+        <v>39332</v>
+      </c>
+      <c r="R19">
+        <v>36839</v>
+      </c>
+      <c r="S19">
+        <v>32960</v>
+      </c>
+      <c r="T19">
+        <v>14830</v>
+      </c>
+      <c r="U19">
+        <v>3342</v>
+      </c>
+      <c r="V19">
+        <v>1581</v>
+      </c>
+      <c r="W19">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>128</v>
+      </c>
+      <c r="F20">
+        <v>128</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>1024</v>
+      </c>
+      <c r="I20">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20">
+        <v>2793</v>
+      </c>
+      <c r="O20">
+        <v>30339</v>
+      </c>
+      <c r="P20">
+        <v>69631</v>
+      </c>
+      <c r="Q20">
+        <v>35972</v>
+      </c>
+      <c r="R20">
+        <v>38581</v>
+      </c>
+      <c r="S20">
+        <v>29835</v>
+      </c>
+      <c r="T20">
+        <v>10786</v>
+      </c>
+      <c r="U20">
+        <v>3685</v>
+      </c>
+      <c r="V20">
+        <v>2116</v>
+      </c>
+      <c r="W20">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>128</v>
+      </c>
+      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>60</v>
+      </c>
+      <c r="H21">
+        <v>1024</v>
+      </c>
+      <c r="I21">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21">
+        <v>2310</v>
+      </c>
+      <c r="O21">
+        <v>22337</v>
+      </c>
+      <c r="P21">
+        <v>68603</v>
+      </c>
+      <c r="Q21">
+        <v>38623</v>
+      </c>
+      <c r="R21">
+        <v>54466</v>
+      </c>
+      <c r="S21">
+        <v>27819</v>
+      </c>
+      <c r="T21">
+        <v>7607</v>
+      </c>
+      <c r="U21">
+        <v>2501</v>
+      </c>
+      <c r="V21">
+        <v>368</v>
+      </c>
+      <c r="W21">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>128</v>
+      </c>
+      <c r="F22">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>60</v>
+      </c>
+      <c r="H22">
+        <v>1024</v>
+      </c>
+      <c r="I22">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22">
+        <v>478</v>
+      </c>
+      <c r="O22">
+        <v>13467</v>
+      </c>
+      <c r="P22">
+        <v>86111</v>
+      </c>
+      <c r="Q22">
+        <v>43026</v>
+      </c>
+      <c r="R22">
+        <v>52394</v>
+      </c>
+      <c r="S22">
+        <v>21824</v>
+      </c>
+      <c r="T22">
+        <v>7431</v>
+      </c>
+      <c r="U22">
+        <v>269</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>128</v>
+      </c>
+      <c r="F23">
+        <v>64</v>
+      </c>
+      <c r="G23">
+        <v>60</v>
+      </c>
+      <c r="H23">
+        <v>1024</v>
+      </c>
+      <c r="I23">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23">
+        <v>972</v>
+      </c>
+      <c r="O23">
+        <v>15567</v>
+      </c>
+      <c r="P23">
+        <v>88417</v>
+      </c>
+      <c r="Q23">
+        <v>41319</v>
+      </c>
+      <c r="R23">
+        <v>40807</v>
+      </c>
+      <c r="S23">
+        <v>28434</v>
+      </c>
+      <c r="T23">
+        <v>8945</v>
+      </c>
+      <c r="U23">
+        <v>539</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>128</v>
+      </c>
+      <c r="F24">
+        <v>64</v>
+      </c>
+      <c r="G24">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>1024</v>
+      </c>
+      <c r="I24">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24">
+        <v>2369</v>
+      </c>
+      <c r="O24">
+        <v>27381</v>
+      </c>
+      <c r="P24">
+        <v>61592</v>
+      </c>
+      <c r="Q24">
+        <v>46489</v>
+      </c>
+      <c r="R24">
+        <v>45985</v>
+      </c>
+      <c r="S24">
+        <v>27449</v>
+      </c>
+      <c r="T24">
+        <v>10069</v>
+      </c>
+      <c r="U24">
+        <v>2039</v>
+      </c>
+      <c r="V24">
+        <v>525</v>
+      </c>
+      <c r="W24">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>128</v>
+      </c>
+      <c r="F25">
+        <v>128</v>
+      </c>
+      <c r="G25">
+        <v>60</v>
+      </c>
+      <c r="H25">
+        <v>1024</v>
+      </c>
+      <c r="I25">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" t="s">
+        <v>62</v>
+      </c>
+      <c r="N25">
+        <v>3018</v>
+      </c>
+      <c r="O25">
+        <v>34104</v>
+      </c>
+      <c r="P25">
+        <v>59555</v>
+      </c>
+      <c r="Q25">
+        <v>37496</v>
+      </c>
+      <c r="R25">
+        <v>33105</v>
+      </c>
+      <c r="S25">
+        <v>41735</v>
+      </c>
+      <c r="T25">
+        <v>9866</v>
+      </c>
+      <c r="U25">
+        <v>3045</v>
+      </c>
+      <c r="V25">
+        <v>2117</v>
+      </c>
+      <c r="W25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>128</v>
+      </c>
+      <c r="F26">
+        <v>128</v>
+      </c>
+      <c r="G26">
+        <v>60</v>
+      </c>
+      <c r="H26">
+        <v>1024</v>
+      </c>
+      <c r="I26">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" t="s">
+        <v>63</v>
+      </c>
+      <c r="N26">
+        <v>3478</v>
+      </c>
+      <c r="O26">
+        <v>30893</v>
+      </c>
+      <c r="P26">
+        <v>66806</v>
+      </c>
+      <c r="Q26">
+        <v>33116</v>
+      </c>
+      <c r="R26">
+        <v>30770</v>
+      </c>
+      <c r="S26">
+        <v>42399</v>
+      </c>
+      <c r="T26">
+        <v>10661</v>
+      </c>
+      <c r="U26">
+        <v>4026</v>
+      </c>
+      <c r="V26">
+        <v>1664</v>
+      </c>
+      <c r="W26">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>128</v>
+      </c>
+      <c r="F27">
+        <v>192</v>
+      </c>
+      <c r="G27">
+        <v>60</v>
+      </c>
+      <c r="H27">
+        <v>1024</v>
+      </c>
+      <c r="I27">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27">
+        <v>3298</v>
+      </c>
+      <c r="O27">
+        <v>29320</v>
+      </c>
+      <c r="P27">
+        <v>63720</v>
+      </c>
+      <c r="Q27">
+        <v>38351</v>
+      </c>
+      <c r="R27">
+        <v>33234</v>
+      </c>
+      <c r="S27">
+        <v>36009</v>
+      </c>
+      <c r="T27">
+        <v>13836</v>
+      </c>
+      <c r="U27">
+        <v>4358</v>
+      </c>
+      <c r="V27">
+        <v>1773</v>
+      </c>
+      <c r="W27">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>128</v>
+      </c>
+      <c r="F28">
+        <v>192</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="H28">
+        <v>1024</v>
+      </c>
+      <c r="I28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28">
+        <v>3859</v>
+      </c>
+      <c r="O28">
+        <v>29338</v>
+      </c>
+      <c r="P28">
+        <v>65124</v>
+      </c>
+      <c r="Q28">
+        <v>33597</v>
+      </c>
+      <c r="R28">
+        <v>35984</v>
+      </c>
+      <c r="S28">
+        <v>28917</v>
+      </c>
+      <c r="T28">
+        <v>19943</v>
+      </c>
+      <c r="U28">
+        <v>4922</v>
+      </c>
+      <c r="V28">
+        <v>2226</v>
+      </c>
+      <c r="W28">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>128</v>
+      </c>
+      <c r="F29">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <v>1024</v>
+      </c>
+      <c r="I29">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M29" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29">
+        <v>1808</v>
+      </c>
+      <c r="O29">
+        <v>26451</v>
+      </c>
+      <c r="P29">
+        <v>83832</v>
+      </c>
+      <c r="Q29">
+        <v>19277</v>
+      </c>
+      <c r="R29">
+        <v>31790</v>
+      </c>
+      <c r="S29">
+        <v>39947</v>
+      </c>
+      <c r="T29">
+        <v>15128</v>
+      </c>
+      <c r="U29">
+        <v>4995</v>
+      </c>
+      <c r="V29">
+        <v>1412</v>
+      </c>
+      <c r="W29">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>128</v>
+      </c>
+      <c r="F30">
+        <v>128</v>
+      </c>
+      <c r="G30">
+        <v>60</v>
+      </c>
+      <c r="H30">
+        <v>1024</v>
+      </c>
+      <c r="I30">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30">
+        <v>2863</v>
+      </c>
+      <c r="O30">
+        <v>26293</v>
+      </c>
+      <c r="P30">
+        <v>84828</v>
+      </c>
+      <c r="Q30">
+        <v>20588</v>
+      </c>
+      <c r="R30">
+        <v>31294</v>
+      </c>
+      <c r="S30">
+        <v>34711</v>
+      </c>
+      <c r="T30">
+        <v>16029</v>
+      </c>
+      <c r="U30">
+        <v>6805</v>
+      </c>
+      <c r="V30">
+        <v>984</v>
+      </c>
+      <c r="W30">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="3">
+        <v>128</v>
+      </c>
+      <c r="F31" s="3">
+        <v>128</v>
+      </c>
+      <c r="G31" s="3">
+        <v>30</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1024</v>
+      </c>
+      <c r="I31" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31">
+        <v>2041</v>
+      </c>
+      <c r="O31">
+        <v>24160</v>
+      </c>
+      <c r="P31">
+        <v>72160</v>
+      </c>
+      <c r="Q31">
+        <v>46502</v>
+      </c>
+      <c r="R31">
+        <v>38803</v>
+      </c>
+      <c r="S31">
+        <v>24346</v>
+      </c>
+      <c r="T31">
+        <v>9424</v>
+      </c>
+      <c r="U31">
+        <v>7409</v>
+      </c>
+      <c r="V31">
+        <v>40</v>
+      </c>
+      <c r="W31">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="3">
+        <v>128</v>
+      </c>
+      <c r="F32" s="3">
+        <v>128</v>
+      </c>
+      <c r="G32" s="3">
+        <v>30</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1024</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32">
+        <v>2978</v>
+      </c>
+      <c r="O32">
+        <v>32544</v>
+      </c>
+      <c r="P32">
+        <v>64358</v>
+      </c>
+      <c r="Q32">
+        <v>35276</v>
+      </c>
+      <c r="R32">
+        <v>40112</v>
+      </c>
+      <c r="S32">
+        <v>30487</v>
+      </c>
+      <c r="T32">
+        <v>11615</v>
+      </c>
+      <c r="U32">
+        <v>6873</v>
+      </c>
+      <c r="V32">
+        <v>4</v>
+      </c>
+      <c r="W32">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="44" spans="14:23" x14ac:dyDescent="0.15">
+      <c r="N44">
+        <v>6619</v>
+      </c>
+      <c r="O44">
+        <v>39438</v>
+      </c>
+      <c r="P44">
+        <v>53529</v>
+      </c>
+      <c r="Q44">
+        <v>36494</v>
+      </c>
+      <c r="R44">
+        <v>34824</v>
+      </c>
+      <c r="S44">
+        <v>24524</v>
+      </c>
+      <c r="T44">
+        <v>15945</v>
+      </c>
+      <c r="U44">
+        <v>7189</v>
+      </c>
+      <c r="V44">
+        <v>3939</v>
+      </c>
+      <c r="W44">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="45" spans="14:23" x14ac:dyDescent="0.15">
+      <c r="N45">
         <v>20405</v>
       </c>
-      <c r="F41">
+      <c r="O45">
         <v>34764</v>
       </c>
-      <c r="G41">
+      <c r="P45">
         <v>54931</v>
       </c>
-      <c r="H41">
+      <c r="Q45">
         <v>36896</v>
       </c>
-      <c r="I41">
+      <c r="R45">
         <v>32649</v>
       </c>
-      <c r="J41">
+      <c r="S45">
         <v>20730</v>
       </c>
-      <c r="K41">
+      <c r="T45">
         <v>13754</v>
       </c>
-      <c r="L41">
+      <c r="U45">
         <v>6169</v>
       </c>
-      <c r="M41">
+      <c r="V45">
         <v>2941</v>
       </c>
-      <c r="N41">
+      <c r="W45">
         <v>1761</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:W41">
+    <sortCondition ref="D2:D39"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>